--- a/CashFlow/CMG_cashflow.xlsx
+++ b/CashFlow/CMG_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>99000000.0</v>
+        <v>-980000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>98000000.0</v>
+        <v>-394000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>69782000.0</v>
+        <v>-1604000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>42049000.0</v>
+        <v>-2922000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>15689000.0</v>
+        <v>-4577000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-4530000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-4658000.0</v>
+        <v>587000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-3859000.0</v>
+        <v>570000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-1945000.0</v>
+        <v>440279000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>97699000.0</v>
+        <v>348169000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>67467000.0</v>
+        <v>177222000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>48302000.0</v>
